--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <t>Permanent</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>Email11@gmail.com</t>
   </si>
   <si>
@@ -61,22 +64,25 @@
   </si>
   <si>
     <t>Email20@gmail.com</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -93,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,43 +135,40 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,184 +477,180 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3">
-        <v>31</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>30</v>
       </c>
-      <c r="D11" s="3">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="7">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
